--- a/document/01_設計書/【技術研修】ツール一覧.xlsx
+++ b/document/01_設計書/【技術研修】ツール一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kisim\OneDrive\Documents\GitHub\wiss1tool\document\01_設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/GitHub/wiss1tool/document/01_設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_DE523A9F5D1CBED4F31C973634AACE4461F2C2B6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E425791-338B-48CC-BC45-935F19324560}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ツール一覧" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>WISS1ツール一覧</t>
     <rPh sb="8" eb="10">
@@ -216,13 +217,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>担当</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WISS1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -274,13 +268,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>楢原</t>
-    <rPh sb="0" eb="2">
-      <t>ナラハラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>src</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -289,29 +276,6 @@
   </si>
   <si>
     <t>WISS1CommonConst.java</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>宮﨑</t>
-    <rPh sb="0" eb="2">
-      <t>ミヤザキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>WISS1プロジェクトの共通定数、共通関数</t>
-    <rPh sb="12" eb="14">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンスウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -357,63 +321,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>原</t>
-    <rPh sb="0" eb="1">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル変換（TSV⇒CSV）</t>
   </si>
   <si>
-    <t>W01ConvertFileCsvToTsv.java</t>
-  </si>
-  <si>
-    <t>西川</t>
-    <rPh sb="0" eb="2">
-      <t>ニシカワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ファイル変換（CSV⇒TSV）</t>
   </si>
   <si>
     <t>W01SelectTableHeader.java</t>
   </si>
   <si>
-    <t>嶋</t>
-    <rPh sb="0" eb="1">
-      <t>シマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テーブルヘッダー部取得</t>
   </si>
   <si>
     <t>W01SelectTableData.java</t>
   </si>
   <si>
-    <t>西尾</t>
-    <rPh sb="0" eb="2">
-      <t>ニシオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テーブルデータ取得</t>
   </si>
   <si>
     <t>W01ShapeEvidence.java</t>
-  </si>
-  <si>
-    <t>中村</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エビデンス整形（EXCEL出力）</t>
@@ -430,13 +356,71 @@
     <rPh sb="21" eb="23">
       <t>キドウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W01ConvertFileCsvToTsv.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WISS1プロジェクトの共通定数</t>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WISS1プロジェクトの共通関数</t>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W01ConvertFileSelect.java</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル変換（ファイル選択）</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>vbs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W01ShapeEvidenceMacro.vbs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エビデンス整形（EXCEL出力）のマクロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル変換（ファイル選択）</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ConvertFileSelect</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,9 +582,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -611,7 +592,22 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-4.9989318521683403E-2"/>
@@ -971,32 +967,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2"/>
-    <col min="2" max="2" width="4.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="2"/>
+    <col min="2" max="2" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="2.625" style="2"/>
+    <col min="11" max="16384" width="2.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="6">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1054,109 +1050,109 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
         <f t="shared" ref="B6:B19" si="0">ROW()-4</f>
         <v>2</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f t="shared" ref="C6:E19" si="1">C5</f>
+        <f>C5</f>
         <v>W</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>D5</f>
         <v>01</v>
       </c>
       <c r="E6" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>E5</f>
         <v>エビデンス取得ツール</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f t="shared" ref="I6:I19" si="2">IF(H6="","",CONCATENATE(C6,D6,H6))</f>
-        <v>W01ConvertFileTsvToCsv</v>
+        <f t="shared" ref="I6:I19" si="1">IF(H6="","",CONCATENATE(C6,D6,H6))</f>
+        <v>W01ConvertFileSelect</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C7:E19" si="2">C6</f>
         <v>W</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E7" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>E6</f>
         <v>エビデンス取得ツール</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>W01ConvertFileCsvToTsv</v>
+        <f t="shared" ref="I7:I11" si="3">IF(H7="","",CONCATENATE(C7,D7,H7))</f>
+        <v>W01ConvertFileTsvToCsv</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E8" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>エビデンス取得ツール</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>W01SelectTableHeader</v>
+        <f t="shared" si="3"/>
+        <v>W01ConvertFileCsvToTsv</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D9" s="10" t="str">
@@ -1171,76 +1167,88 @@
         <v>15</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>W01SelectTableData</v>
+        <f t="shared" si="3"/>
+        <v>W01SelectTableHeader</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>01</v>
       </c>
       <c r="E10" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>エビデンス取得ツール</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>W01SelectTableData</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B11" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>W</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>01</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>エビデンス取得ツール</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="6" t="str">
-        <f t="shared" si="2"/>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="3"/>
         <v>W01ShapeEvidence</v>
       </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>W</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D12" s="6"/>
@@ -1249,18 +1257,18 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D13" s="6"/>
@@ -1269,18 +1277,18 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D14" s="6"/>
@@ -1289,18 +1297,18 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D15" s="6"/>
@@ -1309,18 +1317,18 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D16" s="6"/>
@@ -1329,18 +1337,18 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D17" s="6"/>
@@ -1349,18 +1357,18 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D18" s="6"/>
@@ -1369,18 +1377,18 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="C19" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="D19" s="6"/>
@@ -1389,61 +1397,76 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="C8:H8 C6:F7 D9:H10">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+  <conditionalFormatting sqref="C8:H8 C6:F7 D9:H10 G9:H11">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>C5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:E5">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:H7">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>C5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>F4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:H7">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>C5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>F4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>D4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C19">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>C8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>F4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>F3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:F11">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>D10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:H8">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>G6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:H7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>F3</formula>
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1452,30 +1475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="2"/>
-    <col min="2" max="2" width="4.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="2"/>
+    <col min="2" max="2" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="2.625" style="2"/>
+    <col min="5" max="5" width="28.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="2.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1491,118 +1513,108 @@
       <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B19" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B17" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1610,19 +1622,16 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1630,19 +1639,16 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1650,19 +1656,16 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1670,19 +1673,16 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1690,19 +1690,16 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1710,19 +1707,16 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1730,41 +1724,69 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="E19" s="13" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="E21" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
